--- a/BD paper/catalogos/waveform_4p2_filtered.xlsx
+++ b/BD paper/catalogos/waveform_4p2_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,26 @@
           <t>Inicio estación más cercana 5</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +610,26 @@
           <t>2014-03-16T22:29:50</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2014-03-16T22:29:50</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2014-03-16T22:29:50</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +702,26 @@
           <t>2014-03-17T02:06:14</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2014-03-17T02:06:14</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2014-03-17T02:06:15</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +794,26 @@
           <t>2014-03-17T09:13:13</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2014-03-17T09:13:14</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2014-03-17T09:13:15</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,6 +886,26 @@
           <t>2014-03-18T14:59:00</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2014-03-18T14:59:02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2014-03-18T14:59:03</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -878,6 +978,26 @@
           <t>2014-03-24T19:59:57</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2014-03-24T19:59:57</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2014-03-24T19:59:58</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +1070,26 @@
           <t>2014-04-02T02:52:41</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2014-04-02T02:52:41</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2014-04-02T02:52:41</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1022,6 +1162,26 @@
           <t>2014-04-02T20:34:58</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2014-04-02T20:34:59</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2014-04-02T20:35:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1094,6 +1254,26 @@
           <t>2014-04-03T11:50:56</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:56</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2014-04-03T11:50:58</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1166,6 +1346,26 @@
           <t>2014-04-04T03:18:50</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2014-04-04T03:18:51</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2014-04-04T03:18:53</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1238,6 +1438,26 @@
           <t>2014-04-04T16:02:56</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2014-04-04T16:02:56</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2014-04-04T16:02:58</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1310,6 +1530,26 @@
           <t>2014-04-05T06:32:22</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2014-04-05T06:32:24</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2014-04-05T06:32:24</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1382,6 +1622,26 @@
           <t>2014-04-05T11:58:39</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2014-04-05T11:58:41</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2014-04-05T11:58:42</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1454,6 +1714,26 @@
           <t>2014-04-10T00:10:46</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2014-04-10T00:10:47</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2014-04-10T00:10:49</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1526,6 +1806,26 @@
           <t>2014-04-14T13:35:57</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2014-04-14T13:35:58</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2014-04-14T13:35:58</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1598,6 +1898,26 @@
           <t>2014-04-03T13:01:51</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2014-04-03T13:01:53</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2014-04-03T13:01:53</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1670,6 +1990,26 @@
           <t>2014-04-24T04:57:02</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2014-04-24T04:57:05</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2014-04-24T04:57:05</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1742,6 +2082,26 @@
           <t>2014-04-03T13:23:33</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2014-04-03T13:23:35</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2014-04-03T13:23:36</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1814,6 +2174,26 @@
           <t>2014-04-02T16:50:40</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:40</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2014-04-02T16:50:40</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1886,6 +2266,26 @@
           <t>2014-05-05T02:52:18</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2014-05-05T02:52:19</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2014-05-05T02:52:20</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1958,6 +2358,26 @@
           <t>2014-05-05T05:54:41</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2014-05-05T05:54:42</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2014-05-05T05:54:42</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2450,26 @@
           <t>2014-05-05T09:03:12</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2014-05-05T09:03:13</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2014-05-05T09:03:13</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2102,6 +2542,26 @@
           <t>2014-05-12T11:54:44</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2014-05-12T11:54:44</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2014-05-12T11:54:45</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2174,6 +2634,26 @@
           <t>2014-05-28T10:27:16</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2014-05-28T10:27:16</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2014-05-28T10:27:18</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2246,6 +2726,26 @@
           <t>2014-06-07T19:11:16</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2014-06-07T19:11:17</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2014-06-07T19:11:18</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2318,6 +2818,26 @@
           <t>2014-10-24T00:58:58</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>GO05</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2014-10-24T00:58:59</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2014-10-24T00:59:00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2390,6 +2910,26 @@
           <t>2014-11-28T08:22:16</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2014-11-28T08:22:16</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2014-11-28T08:22:20</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2462,6 +3002,26 @@
           <t>2015-02-22T05:40:32</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2015-02-22T05:40:34</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2015-02-22T05:40:35</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2534,6 +3094,26 @@
           <t>2015-08-24T05:13:57</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2015-08-24T05:13:57</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2015-08-24T05:14:01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2606,6 +3186,26 @@
           <t>2015-09-17T10:13:05</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2015-09-17T10:13:06</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2015-09-17T10:13:06</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2678,6 +3278,26 @@
           <t>2015-09-17T16:46:37</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2015-09-17T16:46:42</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2015-09-17T16:46:42</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2750,6 +3370,26 @@
           <t>2015-09-28T06:06:01</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2015-09-28T06:06:03</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2015-09-28T06:06:05</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2822,6 +3462,26 @@
           <t>2015-09-29T16:46:33</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2015-09-29T16:46:35</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2015-09-29T16:46:37</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2894,6 +3554,26 @@
           <t>2015-10-15T11:03:24</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2015-10-15T11:03:25</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2015-10-15T11:03:26</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2966,6 +3646,26 @@
           <t>2015-09-17T03:10:57</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:11:02</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:11:03</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3038,6 +3738,26 @@
           <t>2015-09-17T03:35:07</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:35:08</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:35:09</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3110,6 +3830,26 @@
           <t>2015-11-07T11:51:40</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2015-11-07T11:51:40</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2015-11-07T11:51:41</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3182,6 +3922,26 @@
           <t>2015-12-27T23:47:27</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2015-12-27T23:47:27</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2015-12-27T23:47:28</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3254,6 +4014,26 @@
           <t>2015-10-23T14:48:09</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2015-10-23T14:48:10</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2015-10-23T14:48:10</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3326,6 +4106,26 @@
           <t>2016-02-12T22:32:12</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:14</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2016-02-12T22:32:15</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3398,6 +4198,26 @@
           <t>2016-02-24T17:02:14</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2016-02-24T17:02:14</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2016-02-24T17:02:15</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3470,6 +4290,26 @@
           <t>2016-02-10T13:15:13</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2016-02-10T13:15:14</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2016-02-10T13:15:14</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3542,6 +4382,26 @@
           <t>2016-04-16T11:51:55</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2016-04-16T11:51:59</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2016-04-16T11:52:06</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3614,6 +4474,26 @@
           <t>2016-05-26T20:37:00</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2016-05-26T20:37:03</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2016-05-26T20:37:03</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3686,6 +4566,26 @@
           <t>2016-05-29T23:18:09</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2016-05-29T23:18:11</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2016-05-29T23:18:13</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3758,6 +4658,26 @@
           <t>2016-07-25T14:59:41</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:41</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2016-07-25T14:59:41</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3830,6 +4750,26 @@
           <t>2016-08-10T06:43:55</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2016-08-10T06:43:55</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2016-08-10T06:43:56</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3902,6 +4842,26 @@
           <t>2017-01-08T00:34:02</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2017-01-08T00:34:04</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2017-01-08T00:34:04</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3974,6 +4934,26 @@
           <t>2017-02-12T16:21:24</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:28</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2017-02-12T16:21:28</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4046,6 +5026,26 @@
           <t>2017-04-28T16:18:54</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>RPRC</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:18:54</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:18:55</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4118,6 +5118,26 @@
           <t>2015-01-23T01:25:49</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2015-01-23T01:25:49</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2015-01-23T01:25:49</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4190,6 +5210,26 @@
           <t>2018-08-01T06:19:23</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2018-08-01T06:19:25</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2018-08-01T06:19:26</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4262,6 +5302,26 @@
           <t>2019-10-21T12:02:52</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:52</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2019-10-21T12:02:53</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4334,6 +5394,26 @@
           <t>2019-11-24T21:18:41</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2019-11-24T21:18:41</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2019-11-24T21:18:42</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4406,6 +5486,26 @@
           <t>2020-03-30T14:53:49</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:53:51</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2020-03-30T14:54:00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4478,6 +5578,26 @@
           <t>2020-04-03T08:48:13</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:16</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:48:18</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4550,6 +5670,26 @@
           <t>2020-06-15T04:35:53</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:53</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2020-06-15T04:35:55</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4622,6 +5762,26 @@
           <t>2020-07-20T20:34:11</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:34:13</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2020-07-20T20:34:15</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4692,6 +5852,26 @@
       <c r="P59" t="inlineStr">
         <is>
           <t>2020-09-03T03:24:10</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:11</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2020-09-03T03:24:13</t>
         </is>
       </c>
     </row>

--- a/BD paper/catalogos/waveform_4p2_filtered.xlsx
+++ b/BD paper/catalogos/waveform_4p2_filtered.xlsx
@@ -495,37 +495,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Inicio estación más cercana 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 7</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -587,37 +587,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2014-03-16T22:29:45</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-03-16T22:29:45</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2014-03-16T22:29:47</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2014-03-16T22:29:48</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2014-03-16T22:29:50</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-03-17T02:06:10</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-03-17T02:06:10</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2014-03-17T02:06:11</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2014-03-17T02:06:13</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2014-03-17T02:06:14</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -771,37 +771,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-03-17T09:13:08</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-03-17T09:13:09</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2014-03-17T09:13:10</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2014-03-17T09:13:11</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2014-03-17T09:13:13</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -863,37 +863,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2014-03-18T14:58:56</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-03-18T14:58:56</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2014-03-18T14:58:58</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2014-03-18T14:59:00</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2014-03-18T14:59:00</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TA01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -955,37 +955,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2014-03-24T19:59:51</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-03-24T19:59:53</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2014-03-24T19:59:55</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2014-03-24T19:59:56</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2014-03-24T19:59:57</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TA01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1047,37 +1047,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-04-02T02:52:34</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-04-02T02:52:35</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2014-04-02T02:52:37</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2014-04-02T02:52:39</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2014-04-02T02:52:41</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-04-02T20:34:54</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-04-02T20:34:56</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2014-04-02T20:34:57</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2014-04-02T20:34:58</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2014-04-02T20:34:58</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>PB12</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-04-03T11:50:48</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-04-03T11:50:49</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2014-04-03T11:50:51</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2014-04-03T11:50:53</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2014-04-03T11:50:56</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2014-04-04T03:18:43</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-04-04T03:18:44</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2014-04-04T03:18:46</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2014-04-04T03:18:48</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2014-04-04T03:18:50</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>2014-04-04T16:02:49</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-04-04T16:02:50</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2014-04-04T16:02:51</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2014-04-04T16:02:53</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2014-04-04T16:02:56</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2014-04-05T06:32:18</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-04-05T06:32:19</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2014-04-05T06:32:19</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2014-04-05T06:32:21</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2014-04-05T06:32:22</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1599,37 +1599,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-04-05T11:58:34</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-04-05T11:58:34</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2014-04-05T11:58:36</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2014-04-05T11:58:37</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2014-04-05T11:58:39</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2014-04-10T00:10:41</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2014-04-10T00:10:41</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2014-04-10T00:10:43</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2014-04-10T00:10:44</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2014-04-10T00:10:46</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1783,37 +1783,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>2014-04-14T13:35:50</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2014-04-14T13:35:51</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2014-04-14T13:35:52</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2014-04-14T13:35:55</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2014-04-14T13:35:57</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1875,37 +1875,37 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2014-04-03T13:01:47</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2014-04-03T13:01:48</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2014-04-03T13:01:49</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2014-04-03T13:01:50</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2014-04-03T13:01:51</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1967,37 +1967,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2014-04-24T04:56:59</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2014-04-24T04:57:00</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2014-04-24T04:57:01</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2014-04-24T04:57:02</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2014-04-24T04:57:02</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2059,37 +2059,37 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2014-04-03T13:23:28</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2014-04-03T13:23:29</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2014-04-03T13:23:31</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2014-04-03T13:23:31</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2014-04-03T13:23:33</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2151,37 +2151,37 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>2014-04-02T16:50:30</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2014-04-02T16:50:35</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2014-04-02T16:50:36</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2014-04-02T16:50:37</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2014-04-02T16:50:40</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2243,37 +2243,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2014-05-05T02:52:14</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2014-05-05T02:52:14</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2014-05-05T02:52:16</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2014-05-05T02:52:17</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2014-05-05T02:52:18</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2335,37 +2335,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2014-05-05T05:54:37</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2014-05-05T05:54:38</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2014-05-05T05:54:39</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2014-05-05T05:54:40</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2014-05-05T05:54:41</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2014-05-05T09:03:06</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2014-05-05T09:03:07</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2014-05-05T09:03:07</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2014-05-05T09:03:10</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2014-05-05T09:03:12</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2014-05-12T11:54:37</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2014-05-12T11:54:38</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2014-05-12T11:54:39</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2014-05-12T11:54:42</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2014-05-12T11:54:44</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2611,37 +2611,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2014-05-28T10:27:10</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2014-05-28T10:27:12</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2014-05-28T10:27:13</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2014-05-28T10:27:15</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2014-05-28T10:27:16</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2703,37 +2703,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2014-06-07T19:11:12</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2014-06-07T19:11:13</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2014-06-07T19:11:14</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2014-06-07T19:11:16</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2014-06-07T19:11:16</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2795,37 +2795,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>GO05</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2014-10-24T00:58:54</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2014-10-24T00:58:54</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2014-10-24T00:58:54</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2014-10-24T00:58:55</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2014-10-24T00:58:58</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>GO05</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2887,37 +2887,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2014-11-28T08:22:12</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2014-11-28T08:22:12</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2014-11-28T08:22:13</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2014-11-28T08:22:13</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2014-11-28T08:22:16</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2979,37 +2979,37 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2015-02-22T05:40:28</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2015-02-22T05:40:29</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>2015-02-22T05:40:29</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2015-02-22T05:40:31</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2015-02-22T05:40:32</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3071,37 +3071,37 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>2015-08-24T05:13:51</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2015-08-24T05:13:51</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>2015-08-24T05:13:51</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2015-08-24T05:13:54</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>2015-08-24T05:13:57</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3163,37 +3163,37 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2015-09-17T10:12:55</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2015-09-17T10:13:02</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>2015-09-17T10:13:03</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2015-09-17T10:13:04</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>2015-09-17T10:13:05</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3255,37 +3255,37 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2015-09-17T16:46:31</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2015-09-17T16:46:32</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>2015-09-17T16:46:34</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2015-09-17T16:46:37</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>2015-09-17T16:46:37</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3347,37 +3347,37 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>2015-09-28T06:05:59</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2015-09-28T06:05:59</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>2015-09-28T06:06:00</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2015-09-28T06:06:00</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2015-09-28T06:06:01</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3439,37 +3439,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2015-09-29T16:46:27</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2015-09-29T16:46:28</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>2015-09-29T16:46:29</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2015-09-29T16:46:31</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2015-09-29T16:46:33</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3531,37 +3531,37 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2015-10-15T11:03:13</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2015-10-15T11:03:22</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>2015-10-15T11:03:23</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2015-10-15T11:03:24</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>2015-10-15T11:03:24</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3623,37 +3623,37 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>2015-09-17T03:10:52</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2015-09-17T03:10:53</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2015-09-17T03:10:53</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2015-09-17T03:10:57</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>2015-09-17T03:10:57</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3715,37 +3715,37 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2015-09-17T03:35:03</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2015-09-17T03:35:03</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2015-09-17T03:35:05</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2015-09-17T03:35:06</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>2015-09-17T03:35:07</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3807,37 +3807,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2015-11-07T11:51:29</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2015-11-07T11:51:39</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2015-11-07T11:51:39</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2015-11-07T11:51:40</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2015-11-07T11:51:40</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3899,37 +3899,37 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2015-12-27T23:47:19</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2015-12-27T23:47:21</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2015-12-27T23:47:21</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2015-12-27T23:47:25</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>2015-12-27T23:47:27</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3991,37 +3991,37 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>2015-10-23T14:47:59</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2015-10-23T14:48:06</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>2015-10-23T14:48:08</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2015-10-23T14:48:08</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>2015-10-23T14:48:09</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4083,37 +4083,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2016-02-12T22:32:08</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2016-02-12T22:32:09</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>2016-02-12T22:32:11</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2016-02-12T22:32:12</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2016-02-12T22:32:12</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4175,37 +4175,37 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2016-02-24T17:02:08</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2016-02-24T17:02:09</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>2016-02-24T17:02:09</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2016-02-24T17:02:13</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2016-02-24T17:02:14</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4267,37 +4267,37 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>2016-02-10T13:15:03</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2016-02-10T13:15:11</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>2016-02-10T13:15:12</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>2016-02-10T13:15:12</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>2016-02-10T13:15:13</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4359,37 +4359,37 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2016-04-16T11:51:47</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2016-04-16T11:51:48</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>2016-04-16T11:51:53</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>2016-04-16T11:51:55</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>2016-04-16T11:51:55</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>AC01</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4451,37 +4451,37 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>2016-05-26T20:36:56</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2016-05-26T20:36:57</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>2016-05-26T20:36:57</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>2016-05-26T20:37:00</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>2016-05-26T20:37:00</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4543,37 +4543,37 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2016-05-29T23:18:06</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2016-05-29T23:18:07</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2016-05-29T23:18:07</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>2016-05-29T23:18:08</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>2016-05-29T23:18:09</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4635,37 +4635,37 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2016-07-25T14:59:31</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2016-07-25T14:59:36</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2016-07-25T14:59:38</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2016-07-25T14:59:40</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2016-07-25T14:59:41</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4727,37 +4727,37 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>2016-08-10T06:43:48</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2016-08-10T06:43:49</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2016-08-10T06:43:52</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2016-08-10T06:43:54</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2016-08-10T06:43:55</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>V25A</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4819,37 +4819,37 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>2017-01-08T00:33:57</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2017-01-08T00:33:58</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>2017-01-08T00:33:59</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2017-01-08T00:33:59</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>2017-01-08T00:34:02</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4911,37 +4911,37 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2017-02-12T16:21:15</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2017-02-12T16:21:21</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>2017-02-12T16:21:21</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>2017-02-12T16:21:24</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>2017-02-12T16:21:24</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -5003,37 +5003,37 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>RPRC</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>2017-04-28T16:18:47</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2017-04-28T16:18:48</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2017-04-28T16:18:50</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2017-04-28T16:18:53</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2017-04-28T16:18:54</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>RPRC</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5095,37 +5095,37 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2015-01-23T01:25:42</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2015-01-23T01:25:43</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>2015-01-23T01:25:43</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>2015-01-23T01:25:44</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>2015-01-23T01:25:49</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5187,37 +5187,37 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>2018-08-01T06:19:15</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2018-08-01T06:19:17</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>2018-08-01T06:19:20</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2018-08-01T06:19:22</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>2018-08-01T06:19:23</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>IN40</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5279,37 +5279,37 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2019-10-21T12:02:46</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2019-10-21T12:02:50</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>2019-10-21T12:02:50</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>2019-10-21T12:02:52</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>2019-10-21T12:02:52</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5371,37 +5371,37 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>2019-11-24T21:18:31</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2019-11-24T21:18:34</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>2019-11-24T21:18:35</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>2019-11-24T21:18:40</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>2019-11-24T21:18:41</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5463,37 +5463,37 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>2020-03-30T14:53:39</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2020-03-30T14:53:41</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>2020-03-30T14:53:46</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>2020-03-30T14:53:47</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>2020-03-30T14:53:49</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>AC04</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>AC02</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5555,37 +5555,37 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>2020-04-03T08:48:03</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2020-04-03T08:48:12</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>2020-04-03T08:48:13</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2020-04-03T08:48:13</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>2020-04-03T08:48:13</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5647,37 +5647,37 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2020-06-15T04:35:47</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2020-06-15T04:35:47</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>2020-06-15T04:35:48</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>2020-06-15T04:35:52</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>2020-06-15T04:35:53</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5739,37 +5739,37 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>2020-07-20T20:33:54</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2020-07-20T20:34:06</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>2020-07-20T20:34:07</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2020-07-20T20:34:07</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>2020-07-20T20:34:11</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>AC01</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>PB15</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5831,37 +5831,37 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>2020-09-03T03:24:00</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2020-09-03T03:24:07</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2020-09-03T03:24:07</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2020-09-03T03:24:10</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>2020-09-03T03:24:10</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
